--- a/LOGS/4b7ce145-550f-4835-9c82-86b4f77a291e/main_page_service_output/main_pages.xlsx
+++ b/LOGS/4b7ce145-550f-4835-9c82-86b4f77a291e/main_page_service_output/main_pages.xlsx
@@ -722,7 +722,7 @@
         <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -742,7 +742,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -759,7 +759,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -776,7 +776,7 @@
         <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -807,10 +807,10 @@
         <v>23479382</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -941,7 +941,7 @@
         <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -961,7 +961,7 @@
         <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -995,7 +995,7 @@
         <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1012,7 +1012,7 @@
         <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:6">
